--- a/biology/Virologie/Hépatite_F/Hépatite_F.xlsx
+++ b/biology/Virologie/Hépatite_F/Hépatite_F.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9patite_F</t>
+          <t>Hépatite_F</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le virus de l’Hépatite F (en anglais, Hepatitis F virus ou HFV) est un virus à l’existence hypothétique et qui serait responsable d’une forme d’hépatite virale. Plusieurs virus candidats pour l’hépatite F ont émergé dans les années 1990, mais aucun des cas rapportés n’a été suffisamment étayé[1],[2],[3].
-Plus récemment, en 1994 Deka et al. ont indiqué que des particules virales nouvelles avaient été découvertes dans les selles de patients atteints d’hépatites post-transfusionnelles, non-A, non-B, non-C, non-E[4]. L'injection de ces particules, dans le sang de singes rhésus Indiens a provoqué une hépatite et le virus a été nommé virus de l’hépatite F, ou virus de Toga. D'autres investigations n'ont pas confirmé l'existence du virus et il a été radié de la liste des virus responsables d'hépatite infectieuse[3],[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le virus de l’Hépatite F (en anglais, Hepatitis F virus ou HFV) est un virus à l’existence hypothétique et qui serait responsable d’une forme d’hépatite virale. Plusieurs virus candidats pour l’hépatite F ont émergé dans les années 1990, mais aucun des cas rapportés n’a été suffisamment étayé.
+Plus récemment, en 1994 Deka et al. ont indiqué que des particules virales nouvelles avaient été découvertes dans les selles de patients atteints d’hépatites post-transfusionnelles, non-A, non-B, non-C, non-E. L'injection de ces particules, dans le sang de singes rhésus Indiens a provoqué une hépatite et le virus a été nommé virus de l’hépatite F, ou virus de Toga. D'autres investigations n'ont pas confirmé l'existence du virus et il a été radié de la liste des virus responsables d'hépatite infectieuse,.
 Le dernier virus responsable d’une forme d’hépatite dont l’existence a été confirmée est celui de l'hépatite G.
 </t>
         </is>
